--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9369BC5-FC8A-AE44-A02B-D080FE372E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C5D731-2DFA-F94E-A691-5A8B4331A84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -209,39 +209,6 @@
   </si>
   <si>
     <t>/static/labs/07_inference_for_numerical_data.zip</t>
-  </si>
-  <si>
-    <t>/slides/01-Intro_to_Course.html</t>
-  </si>
-  <si>
-    <t>/slides/02-Summarizing_Data.html</t>
-  </si>
-  <si>
-    <t>/slides/03-Probability_and_Distributions.html</t>
-  </si>
-  <si>
-    <t>/slides/05-Foundation_for_Inference.html</t>
-  </si>
-  <si>
-    <t>/slides/06-Inference_for_Categorical_Data.html</t>
-  </si>
-  <si>
-    <t>/slides/07-Inference_for_Numerical_Data.html</t>
-  </si>
-  <si>
-    <t>/slides/08-Linear_Regression.html</t>
-  </si>
-  <si>
-    <t>/slides/09-Multiple_Regression.html</t>
-  </si>
-  <si>
-    <t>/slides/09-Logistic_Regression.html</t>
-  </si>
-  <si>
-    <t>/slides/09-Predictive_Modeling.html</t>
-  </si>
-  <si>
-    <t>/slides/10-Bayesian_and_PSA.html</t>
   </si>
   <si>
     <t>Bayesian Analysis and Propensity Score Analysis</t>
@@ -636,7 +603,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,9 +646,6 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
       <c r="E2" t="s">
         <v>40</v>
       </c>
@@ -700,9 +664,6 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
@@ -721,9 +682,6 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" t="s">
         <v>42</v>
       </c>
@@ -742,9 +700,6 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
       <c r="E5" t="s">
         <v>44</v>
       </c>
@@ -758,7 +713,7 @@
         <v>45923</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -772,9 +727,6 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
       <c r="E7" t="s">
         <v>43</v>
       </c>
@@ -788,7 +740,7 @@
         <v>45937</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -802,9 +754,6 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
       <c r="E9" t="s">
         <v>45</v>
       </c>
@@ -823,9 +772,6 @@
       <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
       <c r="E10" t="s">
         <v>46</v>
       </c>
@@ -844,9 +790,6 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
       <c r="E11" t="s">
         <v>49</v>
       </c>
@@ -865,9 +808,6 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
       <c r="E12" t="s">
         <v>50</v>
       </c>
@@ -883,9 +823,6 @@
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -904,7 +841,7 @@
         <v>45986</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -914,13 +851,10 @@
         <v>45993</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
       </c>
       <c r="E16" s="2"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Fall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C5D731-2DFA-F94E-A691-5A8B4331A84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7425592C-E4A7-724B-9712-7785D8AD6789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
-    <sheet name="Schedule" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -43,27 +42,9 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Final Exam</t>
   </si>
   <si>
-    <t>Intro to Data</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>Distributions</t>
-  </si>
-  <si>
     <t>Inference for Categorical Data</t>
   </si>
   <si>
@@ -73,27 +54,12 @@
     <t>Multiple Regression</t>
   </si>
   <si>
-    <t>Bayesian Analysis</t>
-  </si>
-  <si>
-    <t>Intro to the Course</t>
-  </si>
-  <si>
     <t>Slides</t>
   </si>
   <si>
     <t>Foundation for Inference</t>
   </si>
   <si>
-    <t>Maximum Likelihood Estimation</t>
-  </si>
-  <si>
-    <t>Predictive Modeling</t>
-  </si>
-  <si>
-    <t>NO MEETUP - Thanksgiving</t>
-  </si>
-  <si>
     <t>Linear Regression</t>
   </si>
   <si>
@@ -220,17 +186,15 @@
     <t>NO CLASS - Sukkot</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>NO CLASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ dd;@"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -268,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -279,12 +243,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,7 +561,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -641,16 +599,16 @@
         <v>45895</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -659,16 +617,16 @@
         <v>45902</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -677,16 +635,16 @@
         <v>45909</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -695,16 +653,16 @@
         <v>45916</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -713,7 +671,7 @@
         <v>45923</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -722,16 +680,16 @@
         <v>45930</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -740,7 +698,7 @@
         <v>45937</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -749,16 +707,13 @@
         <v>45944</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -767,16 +722,16 @@
         <v>45951</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -785,16 +740,16 @@
         <v>45958</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -803,16 +758,16 @@
         <v>45965</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -821,7 +776,10 @@
         <v>45972</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -831,7 +789,7 @@
         <v>45979</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -841,7 +799,7 @@
         <v>45986</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -851,10 +809,10 @@
         <v>45993</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -864,7 +822,7 @@
         <v>46000</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -874,252 +832,12 @@
         <v>46007</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E19" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>45531</v>
-      </c>
-      <c r="B2" s="1">
-        <f>A3-1</f>
-        <v>45537</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B16" si="0">A4-1</f>
-        <v>45544</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>45551</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>45552</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>45558</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>45559</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>45565</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>45566</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>45572</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>45573</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>45579</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>45580</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>45586</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>45587</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>45593</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>45594</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>45600</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>45601</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>45607</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>45608</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>45614</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>45615</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>45622</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>45628</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>45629</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>45635</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>45636</v>
-      </c>
-      <c r="B17" s="1">
-        <f>A17</f>
-        <v>45636</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>45643</v>
-      </c>
-      <c r="B18" s="1">
-        <f>A18</f>
-        <v>45643</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7425592C-E4A7-724B-9712-7785D8AD6789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FAE8DF-55A1-8B4E-891D-934DBD40EE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>NO CLASS</t>
+  </si>
+  <si>
+    <t>01-Intro_to_Course</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,6 +607,9 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2025 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FAE8DF-55A1-8B4E-891D-934DBD40EE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3763C909-4495-674E-869A-2F75F3A0B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="4000" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -189,7 +189,7 @@
     <t>NO CLASS</t>
   </si>
   <si>
-    <t>01-Intro_to_Course</t>
+    <t>01-Intro_to_Course.html</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
